--- a/tests/validation/test_synthesis/test_synthesis_short.xlsx
+++ b/tests/validation/test_synthesis/test_synthesis_short.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>PDE_model</t>
   </si>
@@ -40,73 +40,151 @@
     <t>Mesh_number_of_elements</t>
   </si>
   <si>
+    <t>Global_name</t>
+  </si>
+  <si>
     <t>Poisson</t>
   </si>
   <si>
     <t>Finite volumes</t>
   </si>
   <si>
-    <t>VF9</t>
-  </si>
-  <si>
-    <t>Non conforming cartesian</t>
+    <t>VF5</t>
+  </si>
+  <si>
+    <t>Regular cubes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexahedra </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>FV simulation of the 3D Poisson equation</t>
+  </si>
+  <si>
+    <t>Wave system</t>
+  </si>
+  <si>
+    <t>Upwind</t>
+  </si>
+  <si>
+    <t>Unstructured triangles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangles </t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 104420 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 224 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 40 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 6422 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 25872 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 934 cells</t>
+  </si>
+  <si>
+    <t>Finite elements</t>
+  </si>
+  <si>
+    <t>P1 FE</t>
+  </si>
+  <si>
+    <t>Unstructured 3D triangles</t>
+  </si>
+  <si>
+    <t>FE simulation of the Poisson equation on a sphere</t>
+  </si>
+  <si>
+    <t>Regular squares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrangles </t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 6561 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 225 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 49 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 961 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 2601 cells</t>
+  </si>
+  <si>
+    <t>Unstructured tetrahedra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetrahedra </t>
+  </si>
+  <si>
+    <t>Regular tetrahedra</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 750 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 7986 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 55566 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 105456 cells</t>
+  </si>
+  <si>
+    <t>Non conforming cartesian locally refined</t>
   </si>
   <si>
     <t xml:space="preserve">Quadrangles Polygons </t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Wave system</t>
+    <t>FV simulation of the 2D Poisson equation</t>
+  </si>
+  <si>
+    <t>FE simulation of the 2D Poisson equation</t>
   </si>
   <si>
     <t>Pseudo staggered</t>
   </si>
   <si>
-    <t>Regular squares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrangles </t>
-  </si>
-  <si>
-    <t>Finite elements</t>
-  </si>
-  <si>
-    <t>P1 FE</t>
-  </si>
-  <si>
-    <t>Unstructured 3D triangles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triangles </t>
-  </si>
-  <si>
-    <t>VF27</t>
-  </si>
-  <si>
-    <t>Unstructured tetrahedra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetrahedra </t>
-  </si>
-  <si>
-    <t>Upwind</t>
-  </si>
-  <si>
-    <t>Unstructured triangles</t>
-  </si>
-  <si>
-    <t>Regular cubes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexahedra </t>
-  </si>
-  <si>
-    <t>Regular tetrahedra</t>
+    <t>Resolution of the Wave system in dimension 3 on 1331 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 29791 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 9261 cells</t>
+  </si>
+  <si>
+    <t>Non conforming cartesian checkerboard</t>
+  </si>
+  <si>
+    <t>Orange, dark squares. PB with mesh ?</t>
+  </si>
+  <si>
+    <t>FE simulation of the 3D Poisson equation</t>
   </si>
   <si>
     <t xml:space="preserve">Hexahedra Polyhedrons </t>
+  </si>
+  <si>
+    <t>Orange, BC violated. PB with mesh ?</t>
   </si>
 </sst>
 </file>
@@ -123,11 +201,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,15 +232,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -460,15 +533,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,2006 +566,2440 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>163840</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>9261</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>68921</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="n">
-        <v>40960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1331</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>104420</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>6422</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>25872</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>934</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>288</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>10773</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="n">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
         <v>2638</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
         <v>4512</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>6561</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" t="n">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" t="n">
-        <v>10773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>40960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>961</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>2601</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16834</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>28561</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" t="n">
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>63249</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>7629</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>270</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
         <v>4077</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>28561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>2081</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I28" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>750</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" t="n">
-        <v>16834</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>7986</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>63249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>55566</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>7629</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>105456</v>
+      </c>
+      <c r="J31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I32" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>2560</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I33" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" t="n">
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>640</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I35" t="n">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" t="n">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>10240</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I37" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>163840</v>
+      </c>
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I38" t="n">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>40960</v>
+      </c>
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" t="n">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" t="n">
-        <v>25872</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I41" t="n">
-        <v>6422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>506</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42" t="n">
-        <v>22801</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13135</v>
+      </c>
+      <c r="J42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I43" t="n">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>3310</v>
+      </c>
+      <c r="J43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>22801</v>
+      </c>
+      <c r="J44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I45" t="n">
-        <v>40401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>2601</v>
+      </c>
+      <c r="J45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I46" t="n">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I47" t="n">
-        <v>9261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>40401</v>
+      </c>
+      <c r="J47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I48" t="n">
-        <v>68921</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>6561</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I49" t="n">
-        <v>9261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>2601</v>
+      </c>
+      <c r="J49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I50" t="n">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I51" t="n">
-        <v>29791</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>961</v>
+      </c>
+      <c r="J51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I52" t="n">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I53" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>1331</v>
+      </c>
+      <c r="J53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I54" t="n">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>29791</v>
+      </c>
+      <c r="J54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I55" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>9261</v>
+      </c>
+      <c r="J55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="I56" t="n">
-        <v>13135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>2560</v>
+      </c>
+      <c r="J56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="I57" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="I58" t="n">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>640</v>
+      </c>
+      <c r="J58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="I59" t="n">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="I60" t="n">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>10240</v>
+      </c>
+      <c r="J60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="I61" t="n">
-        <v>5956</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>40960</v>
+      </c>
+      <c r="J61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
         <v>18</v>
       </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
         <v>19</v>
       </c>
-      <c r="E62" t="n">
-        <v>3</v>
-      </c>
-      <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" t="n">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25872</v>
+      </c>
+      <c r="J62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
         <v>18</v>
       </c>
-      <c r="D63" t="s">
+      <c r="G63" t="s">
         <v>19</v>
       </c>
-      <c r="E63" t="n">
-        <v>3</v>
-      </c>
-      <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>12465</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I64" t="n">
-        <v>7986</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>934</v>
+      </c>
+      <c r="J64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I65" t="n">
-        <v>55566</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>6422</v>
+      </c>
+      <c r="J66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I67" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>12465</v>
+      </c>
+      <c r="J67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I68" t="n">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>1543</v>
+      </c>
+      <c r="J68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I69" t="n">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>5956</v>
+      </c>
+      <c r="J69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E70" t="n">
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I70" t="n">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="n">
+        <v>841</v>
+      </c>
+      <c r="J71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3372</v>
+      </c>
+      <c r="J72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="n">
+        <v>508</v>
+      </c>
+      <c r="J73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" t="s">
+        <v>56</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2304</v>
+      </c>
+      <c r="J74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" t="n">
         <v>18432</v>
+      </c>
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" t="s">
+        <v>56</v>
+      </c>
+      <c r="I76" t="n">
+        <v>288</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" t="n">
+        <v>36</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/tests/validation/test_synthesis/test_synthesis_short.xlsx
+++ b/tests/validation/test_synthesis/test_synthesis_short.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>PDE_model</t>
   </si>
@@ -43,148 +43,142 @@
     <t>Global_name</t>
   </si>
   <si>
+    <t>Wave system</t>
+  </si>
+  <si>
+    <t>Finite volumes</t>
+  </si>
+  <si>
+    <t>Upwind</t>
+  </si>
+  <si>
+    <t>Unstructured triangles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangles </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 104420 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 224 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 40 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 6422 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 25872 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 934 cells</t>
+  </si>
+  <si>
     <t>Poisson</t>
   </si>
   <si>
-    <t>Finite volumes</t>
+    <t>Finite elements</t>
+  </si>
+  <si>
+    <t>P1 FE</t>
+  </si>
+  <si>
+    <t>Unstructured 3D triangles</t>
+  </si>
+  <si>
+    <t>FE simulation of the Poisson equation on a sphere</t>
+  </si>
+  <si>
+    <t>Regular squares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrangles </t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 6561 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 225 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 49 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 961 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 2 on 2601 cells</t>
+  </si>
+  <si>
+    <t>Regular tetrahedra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetrahedra </t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 750 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 7986 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 55566 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 105456 cells</t>
   </si>
   <si>
     <t>VF5</t>
   </si>
   <si>
+    <t>Non conforming cartesian locally refined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrangles Polygons </t>
+  </si>
+  <si>
+    <t>FV simulation of the 2D Poisson equation</t>
+  </si>
+  <si>
+    <t>FE simulation of the 2D Poisson equation</t>
+  </si>
+  <si>
     <t>Regular cubes</t>
   </si>
   <si>
     <t xml:space="preserve">Hexahedra </t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>FV simulation of the 3D Poisson equation</t>
   </si>
   <si>
-    <t>Wave system</t>
-  </si>
-  <si>
-    <t>Upwind</t>
-  </si>
-  <si>
-    <t>Unstructured triangles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triangles </t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 104420 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 224 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 40 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 6422 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 25872 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 934 cells</t>
-  </si>
-  <si>
-    <t>Finite elements</t>
-  </si>
-  <si>
-    <t>P1 FE</t>
-  </si>
-  <si>
-    <t>Unstructured 3D triangles</t>
-  </si>
-  <si>
-    <t>FE simulation of the Poisson equation on a sphere</t>
-  </si>
-  <si>
-    <t>Regular squares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrangles </t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 2 on 6561 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 2 on 225 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 2 on 49 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 2 on 961 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 2 on 2601 cells</t>
+    <t>Pseudo staggered</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 1331 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 29791 cells</t>
+  </si>
+  <si>
+    <t>Resolution of the Wave system in dimension 3 on 9261 cells</t>
+  </si>
+  <si>
+    <t>Non conforming cartesian checkerboard</t>
+  </si>
+  <si>
+    <t>Orange, dark squares. PB with mesh ?</t>
   </si>
   <si>
     <t>Unstructured tetrahedra</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetrahedra </t>
-  </si>
-  <si>
-    <t>Regular tetrahedra</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 750 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 7986 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 55566 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 105456 cells</t>
-  </si>
-  <si>
-    <t>Non conforming cartesian locally refined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrangles Polygons </t>
-  </si>
-  <si>
-    <t>FV simulation of the 2D Poisson equation</t>
-  </si>
-  <si>
-    <t>FE simulation of the 2D Poisson equation</t>
-  </si>
-  <si>
-    <t>Pseudo staggered</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 1331 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 29791 cells</t>
-  </si>
-  <si>
-    <t>Resolution of the Wave system in dimension 3 on 9261 cells</t>
-  </si>
-  <si>
-    <t>Non conforming cartesian checkerboard</t>
-  </si>
-  <si>
-    <t>Orange, dark squares. PB with mesh ?</t>
-  </si>
-  <si>
     <t>FE simulation of the 3D Poisson equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexahedra Polyhedrons </t>
-  </si>
-  <si>
-    <t>Orange, BC violated. PB with mesh ?</t>
   </si>
 </sst>
 </file>
@@ -533,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -596,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>9261</v>
+        <v>104420</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -616,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -628,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>68921</v>
+        <v>224</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -648,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -660,10 +654,10 @@
         <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>1331</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -671,31 +665,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6422</v>
+      </c>
+      <c r="J5" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="n">
-        <v>104420</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -703,31 +697,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25872</v>
+      </c>
+      <c r="J6" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>224</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -735,31 +729,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>934</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -767,31 +761,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>6422</v>
+        <v>288</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -799,31 +793,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>25872</v>
+        <v>10773</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -831,28 +825,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>934</v>
+        <v>1124</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
@@ -863,31 +857,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>288</v>
+        <v>2638</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -895,31 +889,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>10773</v>
+        <v>4512</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -930,28 +924,28 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6561</v>
+      </c>
+      <c r="J13" t="s">
         <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1124</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -962,25 +956,25 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>2638</v>
+        <v>225</v>
       </c>
       <c r="J14" t="s">
         <v>29</v>
@@ -994,28 +988,28 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>4512</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1023,31 +1017,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>961</v>
+      </c>
+      <c r="J16" t="s">
         <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6561</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1055,31 +1049,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17" t="n">
-        <v>225</v>
+        <v>2601</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1087,31 +1081,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
       <c r="I18" t="n">
-        <v>49</v>
+        <v>750</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1119,31 +1113,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>961</v>
+        <v>7986</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1151,31 +1145,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>2601</v>
+        <v>55566</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1195,19 +1189,19 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="n">
+        <v>105456</v>
+      </c>
+      <c r="J21" t="s">
         <v>38</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16834</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1215,31 +1209,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>28561</v>
+        <v>2560</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1247,31 +1241,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23" t="n">
-        <v>63249</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1279,31 +1273,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>7629</v>
+        <v>640</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1311,31 +1305,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1343,31 +1337,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
       <c r="I26" t="n">
-        <v>4077</v>
+        <v>10240</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1375,31 +1369,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>2081</v>
+        <v>163840</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1407,31 +1401,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
       <c r="I28" t="n">
-        <v>750</v>
+        <v>40960</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1439,31 +1433,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="I29" t="n">
-        <v>7986</v>
+        <v>131</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1471,31 +1465,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>55566</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1503,28 +1497,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>105456</v>
+        <v>506</v>
       </c>
       <c r="J31" t="s">
         <v>43</v>
@@ -1535,31 +1529,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
       <c r="I32" t="n">
-        <v>2560</v>
+        <v>13135</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1567,31 +1561,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
       </c>
       <c r="I33" t="n">
-        <v>40</v>
+        <v>3310</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1599,16 +1593,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>44</v>
@@ -1620,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="I34" t="n">
-        <v>640</v>
+        <v>9261</v>
       </c>
       <c r="J34" t="s">
         <v>46</v>
@@ -1631,16 +1625,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -1652,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="I35" t="n">
-        <v>160</v>
+        <v>68921</v>
       </c>
       <c r="J35" t="s">
         <v>46</v>
@@ -1663,16 +1657,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>44</v>
@@ -1684,7 +1678,7 @@
         <v>14</v>
       </c>
       <c r="I36" t="n">
-        <v>10240</v>
+        <v>1331</v>
       </c>
       <c r="J36" t="s">
         <v>46</v>
@@ -1695,31 +1689,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
       </c>
       <c r="I37" t="n">
-        <v>163840</v>
+        <v>22801</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1727,31 +1721,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
       </c>
       <c r="I38" t="n">
-        <v>40960</v>
+        <v>2601</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1759,31 +1753,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
         <v>26</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>27</v>
       </c>
-      <c r="E39" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
       <c r="I39" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1791,31 +1785,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
         <v>26</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>27</v>
       </c>
-      <c r="E40" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
       <c r="H40" t="s">
         <v>14</v>
       </c>
       <c r="I40" t="n">
-        <v>29</v>
+        <v>40401</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1826,28 +1820,28 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
         <v>26</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>27</v>
       </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
       <c r="H41" t="s">
         <v>14</v>
       </c>
       <c r="I41" t="n">
-        <v>506</v>
+        <v>6561</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1858,28 +1852,28 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
         <v>26</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
         <v>27</v>
       </c>
-      <c r="E42" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
       <c r="I42" t="n">
-        <v>13135</v>
+        <v>2601</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1890,28 +1884,28 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
         <v>26</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
         <v>27</v>
       </c>
-      <c r="E43" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
       <c r="H43" t="s">
         <v>14</v>
       </c>
       <c r="I43" t="n">
-        <v>3310</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1925,25 +1919,25 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="n">
+        <v>961</v>
+      </c>
+      <c r="J44" t="s">
         <v>31</v>
-      </c>
-      <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22801</v>
-      </c>
-      <c r="J44" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1957,25 +1951,25 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
       </c>
       <c r="I45" t="n">
-        <v>2601</v>
+        <v>225</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1992,22 +1986,22 @@
         <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
       </c>
       <c r="I46" t="n">
-        <v>121</v>
+        <v>1331</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2024,22 +2018,22 @@
         <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
       </c>
       <c r="I47" t="n">
-        <v>40401</v>
+        <v>29791</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2047,31 +2041,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
       </c>
       <c r="I48" t="n">
-        <v>6561</v>
+        <v>9261</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2079,31 +2073,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E49" t="n">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I49" t="n">
-        <v>2601</v>
+        <v>2560</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2111,31 +2105,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I50" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2143,31 +2137,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I51" t="n">
-        <v>961</v>
+        <v>640</v>
       </c>
       <c r="J51" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2175,31 +2169,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I52" t="n">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2207,31 +2201,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I53" t="n">
-        <v>1331</v>
+        <v>10240</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2239,31 +2233,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I54" t="n">
-        <v>29791</v>
+        <v>40960</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2271,16 +2265,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -2292,10 +2286,10 @@
         <v>14</v>
       </c>
       <c r="I55" t="n">
-        <v>9261</v>
+        <v>25872</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2303,31 +2297,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I56" t="n">
-        <v>2560</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2335,31 +2329,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E57" t="n">
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I57" t="n">
-        <v>40</v>
+        <v>934</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2367,31 +2361,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I58" t="n">
-        <v>640</v>
+        <v>224</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2399,31 +2393,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I59" t="n">
-        <v>160</v>
+        <v>6422</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2431,31 +2425,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I60" t="n">
-        <v>10240</v>
+        <v>12465</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2463,31 +2457,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I61" t="n">
-        <v>40960</v>
+        <v>1543</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2495,31 +2489,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
       </c>
       <c r="I62" t="n">
-        <v>25872</v>
+        <v>5956</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2527,31 +2521,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2559,31 +2553,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
       </c>
       <c r="I64" t="n">
-        <v>934</v>
+        <v>841</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2591,31 +2585,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
       </c>
       <c r="I65" t="n">
-        <v>224</v>
+        <v>3372</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2623,31 +2617,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>6422</v>
+        <v>508</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2655,31 +2649,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
       </c>
       <c r="I67" t="n">
-        <v>12465</v>
+        <v>16834</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2687,31 +2681,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
       </c>
       <c r="I68" t="n">
-        <v>1543</v>
+        <v>28561</v>
       </c>
       <c r="J68" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2719,31 +2713,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
       </c>
       <c r="I69" t="n">
-        <v>5956</v>
+        <v>63249</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2751,31 +2745,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E70" t="n">
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
       </c>
       <c r="I70" t="n">
-        <v>74</v>
+        <v>7629</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2783,31 +2777,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
       </c>
       <c r="I71" t="n">
-        <v>841</v>
+        <v>270</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2815,31 +2809,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
       </c>
       <c r="I72" t="n">
-        <v>3372</v>
+        <v>4077</v>
       </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2847,159 +2841,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
       </c>
       <c r="I73" t="n">
-        <v>508</v>
+        <v>2081</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="n">
-        <v>3</v>
-      </c>
-      <c r="F74" t="s">
-        <v>52</v>
-      </c>
-      <c r="G74" t="s">
-        <v>55</v>
-      </c>
-      <c r="H74" t="s">
-        <v>56</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2304</v>
-      </c>
-      <c r="J74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" t="n">
-        <v>3</v>
-      </c>
-      <c r="F75" t="s">
-        <v>52</v>
-      </c>
-      <c r="G75" t="s">
-        <v>55</v>
-      </c>
-      <c r="H75" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18432</v>
-      </c>
-      <c r="J75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3</v>
-      </c>
-      <c r="F76" t="s">
-        <v>52</v>
-      </c>
-      <c r="G76" t="s">
-        <v>55</v>
-      </c>
-      <c r="H76" t="s">
-        <v>56</v>
-      </c>
-      <c r="I76" t="n">
-        <v>288</v>
-      </c>
-      <c r="J76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" t="n">
-        <v>3</v>
-      </c>
-      <c r="F77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G77" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" t="s">
-        <v>56</v>
-      </c>
-      <c r="I77" t="n">
-        <v>36</v>
-      </c>
-      <c r="J77" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/tests/validation/test_synthesis/test_synthesis_short.xlsx
+++ b/tests/validation/test_synthesis/test_synthesis_short.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>PDE_model</t>
   </si>
@@ -55,16 +55,19 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Regular brick wall</t>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>VF5</t>
+  </si>
+  <si>
+    <t>Regular brickwall</t>
   </si>
   <si>
     <t xml:space="preserve">Polygons </t>
   </si>
   <si>
-    <t>Poisson</t>
-  </si>
-  <si>
-    <t>VF5</t>
+    <t>Regular brick wall</t>
   </si>
   <si>
     <t>Regular hexagons</t>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Triangles </t>
+  </si>
+  <si>
+    <t>Poisson-Beltrami</t>
   </si>
   <si>
     <t>P1 FE</t>
@@ -106,16 +112,13 @@
     <t>Pseudo staggered with scaling</t>
   </si>
   <si>
+    <t>Non conforming cartesian checkerboard</t>
+  </si>
+  <si>
     <t>Orange</t>
   </si>
   <si>
-    <t>Pseudo staggered without scaling</t>
-  </si>
-  <si>
     <t>Unstructured tetrahedra</t>
-  </si>
-  <si>
-    <t>Non conforming cartesian checkerboard</t>
   </si>
   <si>
     <t xml:space="preserve">Hexahedra Polyhedrons </t>
@@ -473,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +536,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7963399887084961</v>
+        <v>0.76692795753479</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -562,7 +565,7 @@
         <v>256</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7456510066986084</v>
+        <v>0.7211549282073975</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -591,7 +594,7 @@
         <v>64</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5112600326538086</v>
+        <v>0.5058579444885254</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -620,7 +623,7 @@
         <v>1024</v>
       </c>
       <c r="I5" t="n">
-        <v>2.08449387550354</v>
+        <v>1.798737049102783</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -628,28 +631,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.986861944198608</v>
+        <v>0.01934003829956055</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -657,19 +660,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -678,7 +681,7 @@
         <v>900</v>
       </c>
       <c r="I7" t="n">
-        <v>1.417689085006714</v>
+        <v>0.06598210334777832</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -686,28 +689,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>225</v>
+        <v>10000</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6141819953918457</v>
+        <v>0.6516988277435303</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -715,28 +718,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9483938217163086</v>
+        <v>0.01772189140319824</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -744,28 +747,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005180120468139648</v>
+        <v>0.1731469631195068</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -773,10 +776,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -785,16 +788,16 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7457339763641357</v>
+        <v>3.941225051879883</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -802,10 +805,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -814,16 +817,16 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06669902801513672</v>
+        <v>1.379122018814087</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -831,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -843,16 +846,16 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>2850</v>
+        <v>225</v>
       </c>
       <c r="I13" t="n">
-        <v>0.181074857711792</v>
+        <v>0.6056649684906006</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -860,10 +863,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -872,16 +875,16 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02254104614257812</v>
+        <v>0.7676370143890381</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -889,10 +892,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -901,16 +904,16 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>6422</v>
+        <v>25</v>
       </c>
       <c r="I15" t="n">
-        <v>1.836648941040039</v>
+        <v>0.007957935333251953</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -918,10 +921,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -930,16 +933,16 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>934</v>
+        <v>11500</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7669260501861572</v>
+        <v>0.7569258213043213</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -947,10 +950,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -959,16 +962,16 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>40</v>
+        <v>1020</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8948230743408203</v>
+        <v>0.07511997222900391</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -976,10 +979,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -988,16 +991,16 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>224</v>
+        <v>2850</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5666470527648926</v>
+        <v>0.188593864440918</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1005,28 +1008,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>10773</v>
+        <v>255</v>
       </c>
       <c r="I19" t="n">
-        <v>2.260047912597656</v>
+        <v>0.02281403541564941</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1034,28 +1037,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>288</v>
+        <v>6422</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06908392906188965</v>
+        <v>1.832567930221558</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1063,28 +1066,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>4512</v>
+        <v>934</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9693970680236816</v>
+        <v>0.7677061557769775</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1092,28 +1095,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>1124</v>
+        <v>40</v>
       </c>
       <c r="I22" t="n">
-        <v>0.250603199005127</v>
+        <v>0.7930221557617188</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1121,28 +1124,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>2638</v>
+        <v>224</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5756230354309082</v>
+        <v>0.5760970115661621</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1150,28 +1153,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="n">
-        <v>16</v>
+        <v>10773</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8774020671844482</v>
+        <v>2.258997917175293</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1179,28 +1182,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>4096</v>
+        <v>288</v>
       </c>
       <c r="I25" t="n">
-        <v>3.243898153305054</v>
+        <v>0.06804013252258301</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1208,28 +1211,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>64</v>
+        <v>4512</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4880380630493164</v>
+        <v>0.9535539150238037</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1237,28 +1240,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>1024</v>
+        <v>1124</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9382588863372803</v>
+        <v>0.2592689990997314</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1266,28 +1269,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="n">
-        <v>256</v>
+        <v>2638</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5518710613250732</v>
+        <v>0.5743129253387451</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1301,22 +1304,22 @@
         <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>55566</v>
+        <v>16</v>
       </c>
       <c r="I29" t="n">
-        <v>23.39986395835876</v>
+        <v>0.7511789798736572</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1330,22 +1333,22 @@
         <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>7986</v>
+        <v>4096</v>
       </c>
       <c r="I30" t="n">
-        <v>3.432246923446655</v>
+        <v>3.251589059829712</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1359,22 +1362,22 @@
         <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="n">
-        <v>750</v>
+        <v>64</v>
       </c>
       <c r="I31" t="n">
-        <v>1.100733041763306</v>
+        <v>0.4743690490722656</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1388,22 +1391,22 @@
         <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>105456</v>
+        <v>1024</v>
       </c>
       <c r="I32" t="n">
-        <v>48.17376494407654</v>
+        <v>0.9423019886016846</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1411,28 +1414,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
       </c>
       <c r="H33" t="n">
-        <v>2560</v>
+        <v>256</v>
       </c>
       <c r="I33" t="n">
-        <v>0.116286039352417</v>
+        <v>0.5525071620941162</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1440,13 +1443,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -1458,10 +1461,10 @@
         <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>160</v>
+        <v>55566</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01257801055908203</v>
+        <v>22.81180191040039</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1469,13 +1472,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -1487,10 +1490,10 @@
         <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>640</v>
+        <v>7986</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03198003768920898</v>
+        <v>3.27519702911377</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1498,13 +1501,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
@@ -1516,10 +1519,10 @@
         <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>10240</v>
+        <v>750</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4715008735656738</v>
+        <v>0.9915900230407715</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1527,13 +1530,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -1545,10 +1548,10 @@
         <v>12</v>
       </c>
       <c r="H37" t="n">
-        <v>163840</v>
+        <v>105456</v>
       </c>
       <c r="I37" t="n">
-        <v>8.70389199256897</v>
+        <v>46.39290904998779</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1556,28 +1559,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>40</v>
+        <v>2560</v>
       </c>
       <c r="I38" t="n">
-        <v>0.005763053894042969</v>
+        <v>0.125823974609375</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1585,28 +1588,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="n">
-        <v>40960</v>
+        <v>160</v>
       </c>
       <c r="I39" t="n">
-        <v>1.953756809234619</v>
+        <v>0.01943802833557129</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1614,28 +1617,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="n">
-        <v>29</v>
+        <v>640</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01148200035095215</v>
+        <v>0.04013609886169434</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1643,28 +1646,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="n">
-        <v>131</v>
+        <v>10240</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0219569206237793</v>
+        <v>0.4806530475616455</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1672,28 +1675,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>3310</v>
+        <v>163840</v>
       </c>
       <c r="I42" t="n">
-        <v>1.972336053848267</v>
+        <v>8.847230911254883</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1701,28 +1704,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
       <c r="H43" t="n">
-        <v>13135</v>
+        <v>40</v>
       </c>
       <c r="I43" t="n">
-        <v>27.0529100894928</v>
+        <v>0.156865119934082</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1730,28 +1733,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
       </c>
       <c r="H44" t="n">
-        <v>506</v>
+        <v>40960</v>
       </c>
       <c r="I44" t="n">
-        <v>0.09209895133972168</v>
+        <v>1.994185924530029</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1759,28 +1762,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>9261</v>
+        <v>29</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8519320487976074</v>
+        <v>0.0406649112701416</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1788,28 +1791,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
       <c r="H46" t="n">
-        <v>68921</v>
+        <v>131</v>
       </c>
       <c r="I46" t="n">
-        <v>20.61302900314331</v>
+        <v>0.02121400833129883</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1817,28 +1820,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
       </c>
       <c r="H47" t="n">
-        <v>1331</v>
+        <v>3310</v>
       </c>
       <c r="I47" t="n">
-        <v>0.09202694892883301</v>
+        <v>2.023407936096191</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1846,28 +1849,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
       </c>
       <c r="H48" t="n">
-        <v>256</v>
+        <v>13135</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0154111385345459</v>
+        <v>27.08982801437378</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1875,28 +1878,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
       </c>
       <c r="H49" t="n">
-        <v>1024</v>
+        <v>506</v>
       </c>
       <c r="I49" t="n">
-        <v>0.04844093322753906</v>
+        <v>0.116595983505249</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1904,28 +1907,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
       </c>
       <c r="H50" t="n">
-        <v>4096</v>
+        <v>9261</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1817760467529297</v>
+        <v>0.8450698852539062</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1933,28 +1936,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>16</v>
+        <v>68921</v>
       </c>
       <c r="I51" t="n">
-        <v>0.004365921020507812</v>
+        <v>20.38299202919006</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1962,28 +1965,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>64</v>
+        <v>1331</v>
       </c>
       <c r="I52" t="n">
-        <v>0.009274959564208984</v>
+        <v>0.08958816528320312</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1991,16 +1994,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2009,10 +2012,10 @@
         <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5711240768432617</v>
+        <v>0.01384091377258301</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2020,16 +2023,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2038,10 +2041,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="n">
-        <v>16</v>
+        <v>1024</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9293508529663086</v>
+        <v>0.04671716690063477</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2049,16 +2052,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
@@ -2067,10 +2070,10 @@
         <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>256</v>
+        <v>4096</v>
       </c>
       <c r="I55" t="n">
-        <v>1.005215167999268</v>
+        <v>0.18373703956604</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2078,16 +2081,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2096,10 +2099,10 @@
         <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>1024</v>
+        <v>16</v>
       </c>
       <c r="I56" t="n">
-        <v>5.478037118911743</v>
+        <v>0.003420829772949219</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2107,16 +2110,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2125,10 +2128,10 @@
         <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>4096</v>
+        <v>64</v>
       </c>
       <c r="I57" t="n">
-        <v>41.02166604995728</v>
+        <v>0.004925012588500977</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2139,25 +2142,25 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
       </c>
       <c r="H58" t="n">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="I58" t="n">
-        <v>1.051292896270752</v>
+        <v>0.5575501918792725</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2168,25 +2171,25 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
       </c>
       <c r="H59" t="n">
-        <v>9261</v>
+        <v>16</v>
       </c>
       <c r="I59" t="n">
-        <v>9.584978103637695</v>
+        <v>0.8429951667785645</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2197,25 +2200,25 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
       </c>
       <c r="H60" t="n">
-        <v>1331</v>
+        <v>256</v>
       </c>
       <c r="I60" t="n">
-        <v>1.38059401512146</v>
+        <v>0.9527230262756348</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2223,28 +2226,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
       </c>
       <c r="H61" t="n">
-        <v>6422</v>
+        <v>1024</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2345609664916992</v>
+        <v>5.291527986526489</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2252,28 +2255,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D62" t="n">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
       </c>
       <c r="H62" t="n">
-        <v>224</v>
+        <v>4096</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01405692100524902</v>
+        <v>39.25006484985352</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2281,28 +2284,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>25872</v>
+        <v>216</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9818401336669922</v>
+        <v>0.8433258533477783</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2310,28 +2313,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
       </c>
       <c r="H64" t="n">
-        <v>40</v>
+        <v>9261</v>
       </c>
       <c r="I64" t="n">
-        <v>0.005146980285644531</v>
+        <v>9.136629104614258</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2339,28 +2342,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
       </c>
       <c r="H65" t="n">
-        <v>934</v>
+        <v>1331</v>
       </c>
       <c r="I65" t="n">
-        <v>0.03674888610839844</v>
+        <v>1.241006851196289</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2368,28 +2371,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D66" t="n">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H66" t="n">
-        <v>6422</v>
+        <v>2560</v>
       </c>
       <c r="I66" t="n">
-        <v>126.8443508148193</v>
+        <v>0.1343591213226318</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2397,28 +2400,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H67" t="n">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="I67" t="n">
-        <v>1.565256118774414</v>
+        <v>0.01306414604187012</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2426,28 +2429,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D68" t="n">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H68" t="n">
-        <v>40</v>
+        <v>640</v>
       </c>
       <c r="I68" t="n">
-        <v>1.042135000228882</v>
+        <v>0.0342869758605957</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2455,28 +2458,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D69" t="n">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H69" t="n">
-        <v>934</v>
+        <v>10240</v>
       </c>
       <c r="I69" t="n">
-        <v>32.82403993606567</v>
+        <v>0.5556900501251221</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2484,28 +2487,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
         <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
       </c>
       <c r="H70" t="n">
-        <v>3372</v>
+        <v>40</v>
       </c>
       <c r="I70" t="n">
-        <v>10.09400320053101</v>
+        <v>0.00659489631652832</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2513,28 +2516,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
       </c>
       <c r="H71" t="n">
-        <v>508</v>
+        <v>40960</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4330987930297852</v>
+        <v>2.379074096679688</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2542,28 +2545,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
         <v>20</v>
       </c>
-      <c r="D72" t="n">
-        <v>3</v>
-      </c>
-      <c r="E72" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" t="s">
-        <v>24</v>
-      </c>
       <c r="G72" t="s">
         <v>12</v>
       </c>
       <c r="H72" t="n">
-        <v>1543</v>
+        <v>6422</v>
       </c>
       <c r="I72" t="n">
-        <v>2.587443113327026</v>
+        <v>0.2301549911499023</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2571,28 +2574,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
         <v>20</v>
       </c>
-      <c r="D73" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" t="s">
-        <v>24</v>
-      </c>
       <c r="G73" t="s">
         <v>12</v>
       </c>
       <c r="H73" t="n">
-        <v>5956</v>
+        <v>224</v>
       </c>
       <c r="I73" t="n">
-        <v>27.84542989730835</v>
+        <v>0.0124061107635498</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2600,28 +2603,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
         <v>20</v>
       </c>
-      <c r="D74" t="n">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" t="s">
-        <v>24</v>
-      </c>
       <c r="G74" t="s">
         <v>12</v>
       </c>
       <c r="H74" t="n">
-        <v>12465</v>
+        <v>25872</v>
       </c>
       <c r="I74" t="n">
-        <v>120.9734861850739</v>
+        <v>0.977384090423584</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2629,28 +2632,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
         <v>20</v>
       </c>
-      <c r="D75" t="n">
-        <v>3</v>
-      </c>
-      <c r="E75" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" t="s">
-        <v>24</v>
-      </c>
       <c r="G75" t="s">
         <v>12</v>
       </c>
       <c r="H75" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04960513114929199</v>
+        <v>0.003858089447021484</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2658,28 +2661,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
         <v>20</v>
       </c>
-      <c r="D76" t="n">
-        <v>3</v>
-      </c>
-      <c r="E76" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" t="s">
-        <v>24</v>
-      </c>
       <c r="G76" t="s">
         <v>12</v>
       </c>
       <c r="H76" t="n">
-        <v>841</v>
+        <v>934</v>
       </c>
       <c r="I76" t="n">
-        <v>1.002623081207275</v>
+        <v>0.03584504127502441</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2690,25 +2693,25 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H77" t="n">
-        <v>255</v>
+        <v>6422</v>
       </c>
       <c r="I77" t="n">
-        <v>0.682675838470459</v>
+        <v>123.1184248924255</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2719,25 +2722,25 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D78" t="n">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H78" t="n">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9818248748779297</v>
+        <v>1.370061159133911</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2748,25 +2751,25 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D79" t="n">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H79" t="n">
-        <v>1020</v>
+        <v>40</v>
       </c>
       <c r="I79" t="n">
-        <v>1.618767023086548</v>
+        <v>0.9448959827423096</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2777,25 +2780,25 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D80" t="n">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H80" t="n">
-        <v>2850</v>
+        <v>934</v>
       </c>
       <c r="I80" t="n">
-        <v>4.442750930786133</v>
+        <v>13.28338599205017</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2803,28 +2806,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
       </c>
       <c r="H81" t="n">
-        <v>7629</v>
+        <v>3372</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4495508670806885</v>
+        <v>10.09969997406006</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2832,28 +2835,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G82" t="s">
         <v>12</v>
       </c>
       <c r="H82" t="n">
-        <v>16834</v>
+        <v>508</v>
       </c>
       <c r="I82" t="n">
-        <v>1.266194105148315</v>
+        <v>0.4323220252990723</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2861,28 +2864,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
       </c>
       <c r="H83" t="n">
-        <v>63249</v>
+        <v>1543</v>
       </c>
       <c r="I83" t="n">
-        <v>13.29560589790344</v>
+        <v>2.501670122146606</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2890,28 +2893,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
       </c>
       <c r="H84" t="n">
-        <v>4077</v>
+        <v>5956</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2247819900512695</v>
+        <v>27.93597006797791</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2919,28 +2922,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
       </c>
       <c r="H85" t="n">
-        <v>28561</v>
+        <v>12465</v>
       </c>
       <c r="I85" t="n">
-        <v>3.038260936737061</v>
+        <v>121.3097281455994</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2948,28 +2951,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
       </c>
       <c r="H86" t="n">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="I86" t="n">
-        <v>0.01628994941711426</v>
+        <v>0.07392787933349609</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2977,28 +2980,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D87" t="n">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
       </c>
       <c r="H87" t="n">
-        <v>2081</v>
+        <v>841</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1004810333251953</v>
+        <v>0.9510278701782227</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3006,28 +3009,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" t="s">
         <v>16</v>
       </c>
-      <c r="D88" t="n">
-        <v>3</v>
-      </c>
-      <c r="E88" t="s">
-        <v>33</v>
-      </c>
-      <c r="F88" t="s">
-        <v>34</v>
-      </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H88" t="n">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="I88" t="n">
-        <v>0.007204055786132812</v>
+        <v>0.67523193359375</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3035,28 +3038,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s">
         <v>16</v>
       </c>
-      <c r="D89" t="n">
-        <v>3</v>
-      </c>
-      <c r="E89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89" t="s">
-        <v>34</v>
-      </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H89" t="n">
-        <v>18432</v>
+        <v>25</v>
       </c>
       <c r="I89" t="n">
-        <v>7.302755832672119</v>
+        <v>0.8095431327819824</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3064,28 +3067,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s">
         <v>16</v>
       </c>
-      <c r="D90" t="n">
-        <v>3</v>
-      </c>
-      <c r="E90" t="s">
-        <v>33</v>
-      </c>
-      <c r="F90" t="s">
-        <v>34</v>
-      </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
-        <v>2304</v>
+        <v>1020</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2310240268707275</v>
+        <v>1.602794885635376</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3093,28 +3096,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s">
         <v>16</v>
       </c>
-      <c r="D91" t="n">
-        <v>3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>33</v>
-      </c>
-      <c r="F91" t="s">
-        <v>34</v>
-      </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H91" t="n">
-        <v>288</v>
+        <v>2850</v>
       </c>
       <c r="I91" t="n">
-        <v>0.02709197998046875</v>
+        <v>4.435081958770752</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3122,16 +3125,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
         <v>26</v>
@@ -3140,10 +3143,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="n">
-        <v>40</v>
+        <v>7629</v>
       </c>
       <c r="I92" t="n">
-        <v>0.8110361099243164</v>
+        <v>0.4468708038330078</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3151,16 +3154,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
         <v>26</v>
@@ -3169,10 +3172,10 @@
         <v>12</v>
       </c>
       <c r="H93" t="n">
-        <v>2560</v>
+        <v>16834</v>
       </c>
       <c r="I93" t="n">
-        <v>3.587850093841553</v>
+        <v>1.27175498008728</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3180,16 +3183,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
         <v>26</v>
@@ -3198,10 +3201,10 @@
         <v>12</v>
       </c>
       <c r="H94" t="n">
-        <v>160</v>
+        <v>63249</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5977280139923096</v>
+        <v>13.37251305580139</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3209,16 +3212,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
         <v>26</v>
@@ -3227,10 +3230,532 @@
         <v>12</v>
       </c>
       <c r="H95" t="n">
+        <v>4077</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.2248299121856689</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="n">
+        <v>28561</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.101244926452637</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="n">
+        <v>270</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.01445412635803223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2081</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.1032698154449463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" t="n">
+        <v>36</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.004923105239868164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" t="n">
+        <v>18432</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7.333347082138062</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2304</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.2235860824584961</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" t="n">
+        <v>288</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.02652311325073242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="n">
+        <v>256</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.01389002799987793</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="n">
+        <v>16384</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.7415599822998047</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1024</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.04630494117736816</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4096</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.1805799007415771</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="n">
+        <v>16</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.003165960311889648</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="n">
+        <v>64</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.004711151123046875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="n">
+        <v>65536</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.210472106933594</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="n">
+        <v>40</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.790308952331543</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2560</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.546686172485352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="n">
+        <v>160</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.5735769271850586</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="n">
         <v>640</v>
       </c>
-      <c r="I95" t="n">
-        <v>1.356467008590698</v>
+      <c r="I113" t="n">
+        <v>1.133316993713379</v>
       </c>
     </row>
   </sheetData>

--- a/tests/validation/test_synthesis/test_synthesis_short.xlsx
+++ b/tests/validation/test_synthesis/test_synthesis_short.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>PDE_model</t>
   </si>
@@ -40,94 +40,88 @@
     <t>Computational_time_taken_by_run</t>
   </si>
   <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>VF5</t>
+  </si>
+  <si>
+    <t>Deformed_quadrangles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrangles </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Non_conforming_checkerboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrangles Polygons </t>
+  </si>
+  <si>
+    <t>Non_conforming_locally_refined</t>
+  </si>
+  <si>
+    <t>Regular_brickwall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polygons </t>
+  </si>
+  <si>
+    <t>Regular_hexagons</t>
+  </si>
+  <si>
+    <t>Regular_squares</t>
+  </si>
+  <si>
+    <t>Unstructured_triangles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangles </t>
+  </si>
+  <si>
     <t>Wave system</t>
   </si>
   <si>
+    <t>Pseudo staggered without scaling</t>
+  </si>
+  <si>
+    <t>Regular squares</t>
+  </si>
+  <si>
+    <t>Unstructured triangles</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
     <t>Upwind</t>
   </si>
   <si>
     <t>Deformed quadrangles</t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrangles </t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Poisson</t>
-  </si>
-  <si>
-    <t>VF5</t>
-  </si>
-  <si>
-    <t>Regular brickwall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygons </t>
-  </si>
-  <si>
     <t>Regular brick wall</t>
   </si>
   <si>
+    <t>Regular checkerboard</t>
+  </si>
+  <si>
     <t>Regular hexagons</t>
   </si>
   <si>
-    <t>Unstructured triangles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triangles </t>
-  </si>
-  <si>
-    <t>Poisson-Beltrami</t>
-  </si>
-  <si>
-    <t>P1 FE</t>
-  </si>
-  <si>
-    <t>Unstructured 3D triangles</t>
-  </si>
-  <si>
-    <t>Regular squares</t>
+    <t>Regular cubes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexahedra </t>
   </si>
   <si>
     <t>Regular tetrahedra</t>
   </si>
   <si>
     <t xml:space="preserve">Tetrahedra </t>
-  </si>
-  <si>
-    <t>Non conforming cartesian locally refined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrangles Polygons </t>
-  </si>
-  <si>
-    <t>Regular cubes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexahedra </t>
-  </si>
-  <si>
-    <t>Pseudo staggered with scaling</t>
-  </si>
-  <si>
-    <t>Non conforming cartesian checkerboard</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Unstructured tetrahedra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexahedra Polyhedrons </t>
-  </si>
-  <si>
-    <t>Orange, BC violated. PB with mesh ?</t>
-  </si>
-  <si>
-    <t>Regular checkerboard</t>
   </si>
 </sst>
 </file>
@@ -476,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +506,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -536,12 +530,12 @@
         <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>0.76692795753479</v>
+        <v>0.003374099731445312</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -562,15 +556,15 @@
         <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7211549282073975</v>
+        <v>0.004831075668334961</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -591,15 +585,15 @@
         <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5058579444885254</v>
+        <v>0.01322793960571289</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -623,157 +617,157 @@
         <v>1024</v>
       </c>
       <c r="I5" t="n">
-        <v>1.798737049102783</v>
+        <v>0.04688000679016113</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
+        <v>4096</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01934003829956055</v>
+        <v>0.1825850009918213</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>900</v>
+        <v>16384</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06598210334777832</v>
+        <v>0.7439610958099365</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>10000</v>
+        <v>65536</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6516988277435303</v>
+        <v>3.128554821014404</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01772189140319824</v>
+        <v>0.004416942596435547</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>2500</v>
+        <v>160</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1731469631195068</v>
+        <v>0.0117640495300293</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -785,24 +779,24 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>2500</v>
+        <v>640</v>
       </c>
       <c r="I11" t="n">
-        <v>3.941225051879883</v>
+        <v>0.03486299514770508</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -814,24 +808,24 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>900</v>
+        <v>2560</v>
       </c>
       <c r="I12" t="n">
-        <v>1.379122018814087</v>
+        <v>0.1329970359802246</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -843,24 +837,24 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>225</v>
+        <v>10240</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6056649684906006</v>
+        <v>0.5587389469146729</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -872,169 +866,169 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>25</v>
+        <v>40960</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7676370143890381</v>
+        <v>2.366601943969727</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007957935333251953</v>
+        <v>0.004275798797607422</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>11500</v>
+        <v>160</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7569258213043213</v>
+        <v>0.01023411750793457</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>1020</v>
+        <v>640</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07511997222900391</v>
+        <v>0.03046488761901855</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>2850</v>
+        <v>2560</v>
       </c>
       <c r="I18" t="n">
-        <v>0.188593864440918</v>
+        <v>0.1167969703674316</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>255</v>
+        <v>10240</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02281403541564941</v>
+        <v>0.466437816619873</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1046,24 +1040,24 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>6422</v>
+        <v>40960</v>
       </c>
       <c r="I20" t="n">
-        <v>1.832567930221558</v>
+        <v>1.955070972442627</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1075,24 +1069,24 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>934</v>
+        <v>163840</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7677061557769775</v>
+        <v>8.740300893783569</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1104,24 +1098,24 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7930221557617188</v>
+        <v>0.004329204559326172</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1133,169 +1127,169 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5760970115661621</v>
+        <v>0.02024602890014648</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="n">
-        <v>10773</v>
+        <v>900</v>
       </c>
       <c r="I24" t="n">
-        <v>2.258997917175293</v>
+        <v>0.0682368278503418</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>288</v>
+        <v>2500</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06804013252258301</v>
+        <v>0.1860380172729492</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>4512</v>
+        <v>10000</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9535539150238037</v>
+        <v>0.6890230178833008</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1124</v>
-      </c>
       <c r="I27" t="n">
-        <v>0.2592689990997314</v>
+        <v>0.004487991333007812</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="n">
-        <v>2638</v>
+        <v>255</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5743129253387451</v>
+        <v>0.02056312561035156</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1307,24 +1301,24 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>16</v>
+        <v>1020</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7511789798736572</v>
+        <v>0.07893896102905273</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1336,24 +1330,24 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>4096</v>
+        <v>2850</v>
       </c>
       <c r="I30" t="n">
-        <v>3.251589059829712</v>
+        <v>0.2021541595458984</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1365,24 +1359,24 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="n">
-        <v>64</v>
+        <v>11500</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4743690490722656</v>
+        <v>0.785477876663208</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1394,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1403,15 +1397,15 @@
         <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>1024</v>
+        <v>16</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9423019886016846</v>
+        <v>0.003129005432128906</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1423,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -1432,15 +1426,15 @@
         <v>12</v>
       </c>
       <c r="H33" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5525071620941162</v>
+        <v>0.005607128143310547</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1449,27 +1443,27 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>55566</v>
+        <v>256</v>
       </c>
       <c r="I34" t="n">
-        <v>22.81180191040039</v>
+        <v>0.01343202590942383</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1478,27 +1472,27 @@
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>7986</v>
+        <v>1024</v>
       </c>
       <c r="I35" t="n">
-        <v>3.27519702911377</v>
+        <v>0.04635381698608398</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1507,27 +1501,27 @@
         <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>750</v>
+        <v>4096</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9915900230407715</v>
+        <v>0.1842849254608154</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1536,474 +1530,474 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
       </c>
       <c r="H37" t="n">
-        <v>105456</v>
+        <v>40</v>
       </c>
       <c r="I37" t="n">
-        <v>46.39290904998779</v>
+        <v>0.003968000411987305</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>2560</v>
+        <v>224</v>
       </c>
       <c r="I38" t="n">
-        <v>0.125823974609375</v>
+        <v>0.01137399673461914</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="n">
-        <v>160</v>
+        <v>934</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01943802833557129</v>
+        <v>0.0346980094909668</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="n">
-        <v>640</v>
+        <v>6422</v>
       </c>
       <c r="I40" t="n">
-        <v>0.04013609886169434</v>
+        <v>0.2335069179534912</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="n">
-        <v>10240</v>
+        <v>25872</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4806530475616455</v>
+        <v>0.9845800399780273</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>163840</v>
+        <v>16</v>
       </c>
       <c r="I42" t="n">
-        <v>8.847230911254883</v>
+        <v>0.9675300121307373</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
       <c r="H43" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I43" t="n">
-        <v>0.156865119934082</v>
+        <v>0.5486669540405273</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
       </c>
       <c r="H44" t="n">
-        <v>40960</v>
+        <v>256</v>
       </c>
       <c r="I44" t="n">
-        <v>1.994185924530029</v>
+        <v>1.166923046112061</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>29</v>
+        <v>1024</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0406649112701416</v>
+        <v>12.61608099937439</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
       <c r="H46" t="n">
-        <v>131</v>
+        <v>4096</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02121400833129883</v>
+        <v>122.5552899837494</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H47" t="n">
-        <v>3310</v>
+        <v>40</v>
       </c>
       <c r="I47" t="n">
-        <v>2.023407936096191</v>
+        <v>1.008746147155762</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H48" t="n">
-        <v>13135</v>
+        <v>224</v>
       </c>
       <c r="I48" t="n">
-        <v>27.08982801437378</v>
+        <v>1.533692836761475</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H49" t="n">
-        <v>506</v>
+        <v>934</v>
       </c>
       <c r="I49" t="n">
-        <v>0.116595983505249</v>
+        <v>30.21942591667175</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H50" t="n">
-        <v>9261</v>
+        <v>6422</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8450698852539062</v>
+        <v>355.9815621376038</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>68921</v>
+        <v>16</v>
       </c>
       <c r="I51" t="n">
-        <v>20.38299202919006</v>
+        <v>0.9238901138305664</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>1331</v>
+        <v>64</v>
       </c>
       <c r="I52" t="n">
-        <v>0.08958816528320312</v>
+        <v>0.5685169696807861</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2015,24 +2009,24 @@
         <v>256</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01384091377258301</v>
+        <v>0.7817621231079102</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2044,549 +2038,549 @@
         <v>1024</v>
       </c>
       <c r="I54" t="n">
-        <v>0.04671716690063477</v>
+        <v>1.955798864364624</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D55" t="n">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>4096</v>
+        <v>25</v>
       </c>
       <c r="I55" t="n">
-        <v>0.18373703956604</v>
+        <v>0.9791920185089111</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I56" t="n">
-        <v>0.003420829772949219</v>
+        <v>0.7026238441467285</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D57" t="n">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>64</v>
+        <v>900</v>
       </c>
       <c r="I57" t="n">
-        <v>0.004925012588500977</v>
+        <v>1.564085960388184</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D58" t="n">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
       </c>
       <c r="H58" t="n">
-        <v>64</v>
+        <v>2500</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5575501918792725</v>
+        <v>5.301702976226807</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D59" t="n">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
       </c>
       <c r="H59" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8429951667785645</v>
+        <v>0.9207239151000977</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
       </c>
       <c r="H60" t="n">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9527230262756348</v>
+        <v>0.6135890483856201</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D61" t="n">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
       </c>
       <c r="H61" t="n">
-        <v>1024</v>
+        <v>640</v>
       </c>
       <c r="I61" t="n">
-        <v>5.291527986526489</v>
+        <v>1.242357969284058</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D62" t="n">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
       </c>
       <c r="H62" t="n">
-        <v>4096</v>
+        <v>2560</v>
       </c>
       <c r="I62" t="n">
-        <v>39.25006484985352</v>
+        <v>3.907962799072266</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8433258533477783</v>
+        <v>1.05935001373291</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
       </c>
       <c r="H64" t="n">
-        <v>9261</v>
+        <v>255</v>
       </c>
       <c r="I64" t="n">
-        <v>9.136629104614258</v>
+        <v>0.7197229862213135</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
       </c>
       <c r="H65" t="n">
-        <v>1331</v>
+        <v>1020</v>
       </c>
       <c r="I65" t="n">
-        <v>1.241006851196289</v>
+        <v>2.012032032012939</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D66" t="n">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
       </c>
       <c r="H66" t="n">
-        <v>2560</v>
+        <v>2850</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1343591213226318</v>
+        <v>5.160417079925537</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
       </c>
       <c r="H67" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01306414604187012</v>
+        <v>0.9354779720306396</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
       </c>
       <c r="H68" t="n">
-        <v>640</v>
+        <v>64</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0342869758605957</v>
+        <v>0.4846761226654053</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D69" t="n">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
       </c>
       <c r="H69" t="n">
-        <v>10240</v>
+        <v>256</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5556900501251221</v>
+        <v>0.5617179870605469</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
       </c>
       <c r="H70" t="n">
-        <v>40</v>
+        <v>1024</v>
       </c>
       <c r="I70" t="n">
-        <v>0.00659489631652832</v>
+        <v>0.962705135345459</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
       </c>
       <c r="H71" t="n">
-        <v>40960</v>
+        <v>4096</v>
       </c>
       <c r="I71" t="n">
-        <v>2.379074096679688</v>
+        <v>3.3126540184021</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
       </c>
       <c r="H72" t="n">
-        <v>6422</v>
+        <v>40</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2301549911499023</v>
+        <v>0.9197230339050293</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
@@ -2595,221 +2589,221 @@
         <v>224</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0124061107635498</v>
+        <v>0.5956850051879883</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D74" t="n">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
       </c>
       <c r="H74" t="n">
-        <v>25872</v>
+        <v>934</v>
       </c>
       <c r="I74" t="n">
-        <v>0.977384090423584</v>
+        <v>0.7759008407592773</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D75" t="n">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
       </c>
       <c r="H75" t="n">
-        <v>40</v>
+        <v>6422</v>
       </c>
       <c r="I75" t="n">
-        <v>0.003858089447021484</v>
+        <v>2.000906229019165</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
       </c>
       <c r="H76" t="n">
-        <v>934</v>
+        <v>216</v>
       </c>
       <c r="I76" t="n">
-        <v>0.03584504127502441</v>
+        <v>1.04648494720459</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H77" t="n">
-        <v>6422</v>
+        <v>1331</v>
       </c>
       <c r="I77" t="n">
-        <v>123.1184248924255</v>
+        <v>1.333107948303223</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H78" t="n">
-        <v>224</v>
+        <v>9261</v>
       </c>
       <c r="I78" t="n">
-        <v>1.370061159133911</v>
+        <v>10.82332301139832</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H79" t="n">
-        <v>40</v>
+        <v>750</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9448959827423096</v>
+        <v>1.17663311958313</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H80" t="n">
-        <v>934</v>
+        <v>7986</v>
       </c>
       <c r="I80" t="n">
-        <v>13.28338599205017</v>
+        <v>3.532873868942261</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
@@ -2818,27 +2812,27 @@
         <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
       </c>
       <c r="H81" t="n">
-        <v>3372</v>
+        <v>55566</v>
       </c>
       <c r="I81" t="n">
-        <v>10.09969997406006</v>
+        <v>25.33301901817322</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -2847,915 +2841,16 @@
         <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>12</v>
       </c>
       <c r="H82" t="n">
-        <v>508</v>
+        <v>105456</v>
       </c>
       <c r="I82" t="n">
-        <v>0.4323220252990723</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" t="n">
-        <v>3</v>
-      </c>
-      <c r="E83" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1543</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.501670122146606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3</v>
-      </c>
-      <c r="E84" t="s">
-        <v>34</v>
-      </c>
-      <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" t="n">
-        <v>5956</v>
-      </c>
-      <c r="I84" t="n">
-        <v>27.93597006797791</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" t="n">
-        <v>3</v>
-      </c>
-      <c r="E85" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="n">
-        <v>12465</v>
-      </c>
-      <c r="I85" t="n">
-        <v>121.3097281455994</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" t="n">
-        <v>3</v>
-      </c>
-      <c r="E86" t="s">
-        <v>34</v>
-      </c>
-      <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="n">
-        <v>74</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.07392787933349609</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" t="n">
-        <v>3</v>
-      </c>
-      <c r="E87" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="n">
-        <v>841</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.9510278701782227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" t="n">
-        <v>255</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.67523193359375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2</v>
-      </c>
-      <c r="E89" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="n">
-        <v>25</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.8095431327819824</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1020</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1.602794885635376</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2850</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4.435081958770752</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" t="n">
-        <v>3</v>
-      </c>
-      <c r="E92" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="n">
-        <v>7629</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.4468708038330078</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" t="n">
-        <v>3</v>
-      </c>
-      <c r="E93" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="n">
-        <v>16834</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.27175498008728</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" t="n">
-        <v>3</v>
-      </c>
-      <c r="E94" t="s">
-        <v>34</v>
-      </c>
-      <c r="F94" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" t="n">
-        <v>63249</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13.37251305580139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" t="n">
-        <v>3</v>
-      </c>
-      <c r="E95" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4077</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.2248299121856689</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" t="n">
-        <v>3</v>
-      </c>
-      <c r="E96" t="s">
-        <v>34</v>
-      </c>
-      <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" t="n">
-        <v>28561</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3.101244926452637</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" t="n">
-        <v>3</v>
-      </c>
-      <c r="E97" t="s">
-        <v>34</v>
-      </c>
-      <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" t="n">
-        <v>270</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.01445412635803223</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2081</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.1032698154449463</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="n">
-        <v>3</v>
-      </c>
-      <c r="E99" t="s">
-        <v>32</v>
-      </c>
-      <c r="F99" t="s">
-        <v>35</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
-      </c>
-      <c r="H99" t="n">
-        <v>36</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.004923105239868164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="n">
-        <v>3</v>
-      </c>
-      <c r="E100" t="s">
-        <v>32</v>
-      </c>
-      <c r="F100" t="s">
-        <v>35</v>
-      </c>
-      <c r="G100" t="s">
-        <v>36</v>
-      </c>
-      <c r="H100" t="n">
-        <v>18432</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7.333347082138062</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" t="n">
-        <v>3</v>
-      </c>
-      <c r="E101" t="s">
-        <v>32</v>
-      </c>
-      <c r="F101" t="s">
-        <v>35</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2304</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.2235860824584961</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" t="n">
-        <v>3</v>
-      </c>
-      <c r="E102" t="s">
-        <v>32</v>
-      </c>
-      <c r="F102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" t="s">
-        <v>36</v>
-      </c>
-      <c r="H102" t="n">
-        <v>288</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.02652311325073242</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" t="n">
-        <v>256</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.01389002799987793</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" t="n">
-        <v>16384</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.7415599822998047</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.04630494117736816</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" t="n">
-        <v>4096</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.1805799007415771</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" t="n">
-        <v>16</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.003165960311889648</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="n">
-        <v>2</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" t="n">
-        <v>64</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.004711151123046875</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" t="n">
-        <v>2</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="n">
-        <v>65536</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.210472106933594</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" t="n">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s">
-        <v>37</v>
-      </c>
-      <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" t="n">
-        <v>40</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.790308952331543</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s">
-        <v>37</v>
-      </c>
-      <c r="F111" t="s">
-        <v>28</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2560</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3.546686172485352</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2</v>
-      </c>
-      <c r="E112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="n">
-        <v>160</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.5735769271850586</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2</v>
-      </c>
-      <c r="E113" t="s">
-        <v>37</v>
-      </c>
-      <c r="F113" t="s">
-        <v>28</v>
-      </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" t="n">
-        <v>640</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1.133316993713379</v>
+        <v>51.01061201095581</v>
       </c>
     </row>
   </sheetData>

--- a/tests/validation/test_synthesis/test_synthesis_short.xlsx
+++ b/tests/validation/test_synthesis/test_synthesis_short.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>PDE_model</t>
   </si>
@@ -43,6 +43,24 @@
     <t>Poisson</t>
   </si>
   <si>
+    <t>P1 FE</t>
+  </si>
+  <si>
+    <t>Unstructured_triangles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangles </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Unstructured_tetrahedra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetrahedra </t>
+  </si>
+  <si>
     <t>VF5</t>
   </si>
   <si>
@@ -52,9 +70,6 @@
     <t xml:space="preserve">Quadrangles </t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>Non_conforming_checkerboard</t>
   </si>
   <si>
@@ -76,16 +91,28 @@
     <t>Regular_squares</t>
   </si>
   <si>
-    <t>Unstructured_triangles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triangles </t>
+    <t xml:space="preserve">Hexahedra Polyhedrons </t>
+  </si>
+  <si>
+    <t>Orange, BC violated. PB with mesh ?</t>
+  </si>
+  <si>
+    <t>Regular_cubes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexahedra </t>
+  </si>
+  <si>
+    <t>Poisson-Beltrami</t>
+  </si>
+  <si>
+    <t>Unstructured_3D_triangles</t>
   </si>
   <si>
     <t>Wave system</t>
   </si>
   <si>
-    <t>Pseudo staggered without scaling</t>
+    <t>Pseudo staggered with scaling</t>
   </si>
   <si>
     <t>Regular squares</t>
@@ -115,13 +142,7 @@
     <t>Regular cubes</t>
   </si>
   <si>
-    <t xml:space="preserve">Hexahedra </t>
-  </si>
-  <si>
     <t>Regular tetrahedra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetrahedra </t>
   </si>
 </sst>
 </file>
@@ -470,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +527,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -527,15 +548,15 @@
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003374099731445312</v>
+        <v>0.009495019912719727</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -556,15 +577,15 @@
         <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004831075668334961</v>
+        <v>0.01941394805908203</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -585,15 +606,15 @@
         <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>256</v>
+        <v>506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01322793960571289</v>
+        <v>0.09433507919311523</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -614,15 +635,15 @@
         <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>1024</v>
+        <v>3310</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04688000679016113</v>
+        <v>2.051453113555908</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -643,15 +664,15 @@
         <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>4096</v>
+        <v>13135</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1825850009918213</v>
+        <v>27.56548810005188</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -660,27 +681,27 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>16384</v>
+        <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7439610958099365</v>
+        <v>0.03597903251647949</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -689,27 +710,27 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>65536</v>
+        <v>508</v>
       </c>
       <c r="I8" t="n">
-        <v>3.128554821014404</v>
+        <v>0.3783779144287109</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -718,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -730,15 +751,15 @@
         <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>40</v>
+        <v>841</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004416942596435547</v>
+        <v>0.9430508613586426</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -747,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -759,15 +780,15 @@
         <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>160</v>
+        <v>1543</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0117640495300293</v>
+        <v>2.435882091522217</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -776,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -788,15 +809,15 @@
         <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>640</v>
+        <v>3372</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03486299514770508</v>
+        <v>10.00973296165466</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -805,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -817,15 +838,15 @@
         <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>2560</v>
+        <v>5956</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1329970359802246</v>
+        <v>27.78389096260071</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -834,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -846,891 +867,891 @@
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>10240</v>
+        <v>12465</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5587389469146729</v>
+        <v>122.3609318733215</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>40960</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>2.366601943969727</v>
+        <v>0.003246068954467773</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004275798797607422</v>
+        <v>0.004844903945922852</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01023411750793457</v>
+        <v>0.01331996917724609</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>640</v>
+        <v>1024</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03046488761901855</v>
+        <v>0.04704594612121582</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>2560</v>
+        <v>4096</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1167969703674316</v>
+        <v>0.183474063873291</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>10240</v>
+        <v>16384</v>
       </c>
       <c r="I19" t="n">
-        <v>0.466437816619873</v>
+        <v>0.7661561965942383</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>40960</v>
+        <v>65536</v>
       </c>
       <c r="I20" t="n">
-        <v>1.955070972442627</v>
+        <v>3.143857955932617</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>163840</v>
+        <v>40</v>
       </c>
       <c r="I21" t="n">
-        <v>8.740300893783569</v>
+        <v>0.004462003707885742</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="I22" t="n">
-        <v>0.004329204559326172</v>
+        <v>0.009814977645874023</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>225</v>
+        <v>640</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02024602890014648</v>
+        <v>0.03428792953491211</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="n">
-        <v>900</v>
+        <v>2560</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0682368278503418</v>
+        <v>0.1332569122314453</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>2500</v>
+        <v>10240</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1860380172729492</v>
+        <v>0.5625488758087158</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>10000</v>
+        <v>40960</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6890230178833008</v>
+        <v>2.533998012542725</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I27" t="n">
-        <v>0.004487991333007812</v>
+        <v>0.004370927810668945</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="n">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02056312561035156</v>
+        <v>0.009079933166503906</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>1020</v>
+        <v>640</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07893896102905273</v>
+        <v>0.03075194358825684</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>2850</v>
+        <v>2560</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2021541595458984</v>
+        <v>0.1196200847625732</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="n">
-        <v>11500</v>
+        <v>10240</v>
       </c>
       <c r="I31" t="n">
-        <v>0.785477876663208</v>
+        <v>0.5007708072662354</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
         <v>19</v>
       </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
       <c r="G32" t="s">
         <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>16</v>
+        <v>40960</v>
       </c>
       <c r="I32" t="n">
-        <v>0.003129005432128906</v>
+        <v>2.032052040100098</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
       </c>
       <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
         <v>19</v>
       </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
       <c r="G33" t="s">
         <v>12</v>
       </c>
       <c r="H33" t="n">
-        <v>64</v>
+        <v>163840</v>
       </c>
       <c r="I33" t="n">
-        <v>0.005607128143310547</v>
+        <v>9.517714023590088</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01343202590942383</v>
+        <v>0.003968000411987305</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>1024</v>
+        <v>225</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04635381698608398</v>
+        <v>0.02009892463684082</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>4096</v>
+        <v>900</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1842849254608154</v>
+        <v>0.05852985382080078</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
       </c>
       <c r="H37" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="I37" t="n">
-        <v>0.003968000411987305</v>
+        <v>0.1601788997650146</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>224</v>
+        <v>10000</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01137399673461914</v>
+        <v>0.6617789268493652</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="n">
-        <v>934</v>
+        <v>25</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0346980094909668</v>
+        <v>0.00410008430480957</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="n">
-        <v>6422</v>
+        <v>255</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2335069179534912</v>
+        <v>0.02019000053405762</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="n">
-        <v>25872</v>
+        <v>1020</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9845800399780273</v>
+        <v>0.06568098068237305</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
         <v>22</v>
       </c>
-      <c r="C42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>16</v>
+        <v>2850</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9675300121307373</v>
+        <v>0.1809108257293701</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
         <v>22</v>
       </c>
-      <c r="C43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
       <c r="H43" t="n">
-        <v>64</v>
+        <v>11500</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5486669540405273</v>
+        <v>0.7816729545593262</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -1739,27 +1760,27 @@
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
       </c>
       <c r="H44" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I44" t="n">
-        <v>1.166923046112061</v>
+        <v>0.003203868865966797</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -1768,27 +1789,27 @@
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>1024</v>
+        <v>64</v>
       </c>
       <c r="I45" t="n">
-        <v>12.61608099937439</v>
+        <v>0.006433963775634766</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -1797,149 +1818,149 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
       <c r="H46" t="n">
-        <v>4096</v>
+        <v>256</v>
       </c>
       <c r="I46" t="n">
-        <v>122.5552899837494</v>
+        <v>0.01357293128967285</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H47" t="n">
-        <v>40</v>
+        <v>1024</v>
       </c>
       <c r="I47" t="n">
-        <v>1.008746147155762</v>
+        <v>0.04730701446533203</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H48" t="n">
-        <v>224</v>
+        <v>4096</v>
       </c>
       <c r="I48" t="n">
-        <v>1.533692836761475</v>
+        <v>1.473608016967773</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
-        <v>934</v>
+        <v>40</v>
       </c>
       <c r="I49" t="n">
-        <v>30.21942591667175</v>
+        <v>0.004012823104858398</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H50" t="n">
-        <v>6422</v>
+        <v>224</v>
       </c>
       <c r="I50" t="n">
-        <v>355.9815621376038</v>
+        <v>0.01132988929748535</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -1948,27 +1969,27 @@
         <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>16</v>
+        <v>934</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9238901138305664</v>
+        <v>0.03509402275085449</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -1977,27 +1998,27 @@
         <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>64</v>
+        <v>6422</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5685169696807861</v>
+        <v>0.2343621253967285</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2006,230 +2027,230 @@
         <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>256</v>
+        <v>25872</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7817621231079102</v>
+        <v>0.9871089458465576</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H54" t="n">
-        <v>1024</v>
+        <v>36</v>
       </c>
       <c r="I54" t="n">
-        <v>1.955798864364624</v>
+        <v>0.004796981811523438</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H55" t="n">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9791920185089111</v>
+        <v>0.02751994132995605</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H56" t="n">
-        <v>225</v>
+        <v>2304</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7026238441467285</v>
+        <v>0.2277991771697998</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H57" t="n">
-        <v>900</v>
+        <v>18432</v>
       </c>
       <c r="I57" t="n">
-        <v>1.564085960388184</v>
+        <v>7.379019975662231</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
         <v>27</v>
       </c>
-      <c r="D58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>29</v>
-      </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
       </c>
       <c r="H58" t="n">
-        <v>2500</v>
+        <v>1331</v>
       </c>
       <c r="I58" t="n">
-        <v>5.301702976226807</v>
+        <v>0.08947610855102539</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
         <v>27</v>
       </c>
-      <c r="D59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>30</v>
-      </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
       </c>
       <c r="H59" t="n">
-        <v>40</v>
+        <v>9261</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9207239151000977</v>
+        <v>0.8500800132751465</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
         <v>27</v>
       </c>
-      <c r="D60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>30</v>
-      </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
       </c>
       <c r="H60" t="n">
-        <v>160</v>
+        <v>68921</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6135890483856201</v>
+        <v>20.53047895431519</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2238,27 +2259,27 @@
         <v>12</v>
       </c>
       <c r="H61" t="n">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="I61" t="n">
-        <v>1.242357969284058</v>
+        <v>0.01433610916137695</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2267,155 +2288,155 @@
         <v>12</v>
       </c>
       <c r="H62" t="n">
-        <v>2560</v>
+        <v>2081</v>
       </c>
       <c r="I62" t="n">
-        <v>3.907962799072266</v>
+        <v>0.1012160778045654</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>25</v>
+        <v>4077</v>
       </c>
       <c r="I63" t="n">
-        <v>1.05935001373291</v>
+        <v>0.2273478507995605</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
       </c>
       <c r="H64" t="n">
-        <v>255</v>
+        <v>7629</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7197229862213135</v>
+        <v>0.4613399505615234</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
       </c>
       <c r="H65" t="n">
-        <v>1020</v>
+        <v>16834</v>
       </c>
       <c r="I65" t="n">
-        <v>2.012032032012939</v>
+        <v>1.289654970169067</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
       </c>
       <c r="H66" t="n">
-        <v>2850</v>
+        <v>28561</v>
       </c>
       <c r="I66" t="n">
-        <v>5.160417079925537</v>
+        <v>3.069851875305176</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
       </c>
       <c r="H67" t="n">
-        <v>16</v>
+        <v>63249</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9354779720306396</v>
+        <v>13.54003691673279</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2423,16 +2444,16 @@
         <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
@@ -2441,10 +2462,10 @@
         <v>12</v>
       </c>
       <c r="H68" t="n">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="I68" t="n">
-        <v>0.4846761226654053</v>
+        <v>0.0659480094909668</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2452,16 +2473,16 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
@@ -2470,27 +2491,27 @@
         <v>12</v>
       </c>
       <c r="H69" t="n">
-        <v>256</v>
+        <v>1124</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5617179870605469</v>
+        <v>0.2455589771270752</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D70" t="n">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -2499,27 +2520,27 @@
         <v>12</v>
       </c>
       <c r="H70" t="n">
-        <v>1024</v>
+        <v>2638</v>
       </c>
       <c r="I70" t="n">
-        <v>0.962705135345459</v>
+        <v>0.5710239410400391</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -2528,329 +2549,1228 @@
         <v>12</v>
       </c>
       <c r="H71" t="n">
-        <v>4096</v>
+        <v>4512</v>
       </c>
       <c r="I71" t="n">
-        <v>3.3126540184021</v>
+        <v>0.9630579948425293</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D72" t="n">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
       </c>
       <c r="H72" t="n">
-        <v>40</v>
+        <v>10773</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9197230339050293</v>
+        <v>2.325834035873413</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
       </c>
       <c r="H73" t="n">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5956850051879883</v>
+        <v>0.7960450649261475</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
       </c>
       <c r="H74" t="n">
-        <v>934</v>
+        <v>64</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7759008407592773</v>
+        <v>0.5499911308288574</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D75" t="n">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
       </c>
       <c r="H75" t="n">
-        <v>6422</v>
+        <v>256</v>
       </c>
       <c r="I75" t="n">
-        <v>2.000906229019165</v>
+        <v>0.979668140411377</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
       </c>
       <c r="H76" t="n">
-        <v>216</v>
+        <v>1024</v>
       </c>
       <c r="I76" t="n">
-        <v>1.04648494720459</v>
+        <v>5.273868083953857</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
       </c>
       <c r="H77" t="n">
-        <v>1331</v>
+        <v>4096</v>
       </c>
       <c r="I77" t="n">
-        <v>1.333107948303223</v>
+        <v>40.97396779060364</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H78" t="n">
-        <v>9261</v>
+        <v>40</v>
       </c>
       <c r="I78" t="n">
-        <v>10.82332301139832</v>
+        <v>0.9199910163879395</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" t="s">
         <v>34</v>
       </c>
       <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
         <v>35</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
       <c r="H79" t="n">
-        <v>750</v>
+        <v>224</v>
       </c>
       <c r="I79" t="n">
-        <v>1.17663311958313</v>
+        <v>1.3789381980896</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
         <v>34</v>
       </c>
       <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
         <v>35</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
       <c r="H80" t="n">
-        <v>7986</v>
+        <v>934</v>
       </c>
       <c r="I80" t="n">
-        <v>3.532873868942261</v>
+        <v>13.53200793266296</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81" t="s">
         <v>34</v>
       </c>
       <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
         <v>35</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
       <c r="H81" t="n">
-        <v>55566</v>
+        <v>6422</v>
       </c>
       <c r="I81" t="n">
-        <v>25.33301901817322</v>
+        <v>122.3157370090485</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="n">
+        <v>16</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.7936751842498779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="n">
+        <v>64</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.5165359973907471</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="n">
+        <v>256</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.7316319942474365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1024</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.837322950363159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="n">
+        <v>25</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.7868549823760986</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="n">
+        <v>225</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.6170580387115479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="n">
+        <v>900</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.415335178375244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4.073225021362305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="n">
+        <v>40</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.784188985824585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="n">
+        <v>160</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.5758559703826904</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="n">
+        <v>640</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.137468099594116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2560</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.641068935394287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="n">
+        <v>25</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.8257989883422852</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="n">
+        <v>255</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.6899399757385254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1020</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.654615879058838</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2850</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4.54450511932373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="n">
+        <v>16</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.7626969814300537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="n">
+        <v>64</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.4779658317565918</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="n">
+        <v>256</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.5511181354522705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1024</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9631259441375732</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4096</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.448447227478027</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="n">
+        <v>40</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9770679473876953</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="n">
+        <v>224</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.5877010822296143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="n">
+        <v>934</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.7770121097564697</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="n">
+        <v>6422</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.884338140487671</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" t="n">
         <v>3</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E107" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="n">
+        <v>216</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.8710489273071289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1331</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.256639003753662</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="n">
+        <v>9261</v>
+      </c>
+      <c r="I109" t="n">
+        <v>9.29131007194519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F82" t="s">
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="n">
+        <v>750</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.009680986404419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="n">
+        <v>7986</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.36483097076416</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="n">
+        <v>55566</v>
+      </c>
+      <c r="I112" t="n">
+        <v>22.91612410545349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" t="n">
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="n">
         <v>105456</v>
       </c>
-      <c r="I82" t="n">
-        <v>51.01061201095581</v>
+      <c r="I113" t="n">
+        <v>46.16350388526917</v>
       </c>
     </row>
   </sheetData>
